--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H2">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I2">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J2">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>2666.858641429536</v>
+        <v>279.1910928336605</v>
       </c>
       <c r="R2">
-        <v>24001.72777286582</v>
+        <v>2512.719835502945</v>
       </c>
       <c r="S2">
-        <v>0.06412228261475862</v>
+        <v>0.009572642177851639</v>
       </c>
       <c r="T2">
-        <v>0.06412228261475862</v>
+        <v>0.009572642177851639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H3">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I3">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J3">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>6551.286539863777</v>
+        <v>4163.330149976355</v>
       </c>
       <c r="R3">
-        <v>58961.578858774</v>
+        <v>37469.97134978719</v>
       </c>
       <c r="S3">
-        <v>0.1575199526789424</v>
+        <v>0.1427483570105502</v>
       </c>
       <c r="T3">
-        <v>0.1575199526789424</v>
+        <v>0.1427483570105502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H4">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I4">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J4">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>3358.688434870536</v>
+        <v>1580.368720967622</v>
       </c>
       <c r="R4">
-        <v>30228.19591383482</v>
+        <v>14223.3184887086</v>
       </c>
       <c r="S4">
-        <v>0.08075672466848306</v>
+        <v>0.05418619957157948</v>
       </c>
       <c r="T4">
-        <v>0.08075672466848305</v>
+        <v>0.05418619957157948</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I5">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J5">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>4774.986521412303</v>
+        <v>786.6099867073488</v>
       </c>
       <c r="R5">
-        <v>42974.87869271073</v>
+        <v>7079.489880366139</v>
       </c>
       <c r="S5">
-        <v>0.1148103729425784</v>
+        <v>0.02697054501219474</v>
       </c>
       <c r="T5">
-        <v>0.1148103729425784</v>
+        <v>0.02697054501219475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I6">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J6">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>11730.01989673922</v>
@@ -818,10 +818,10 @@
         <v>105570.179070653</v>
       </c>
       <c r="S6">
-        <v>0.2820380650143011</v>
+        <v>0.402187913915522</v>
       </c>
       <c r="T6">
-        <v>0.282038065014301</v>
+        <v>0.402187913915522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I7">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J7">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>6013.701572698803</v>
+        <v>4452.627073363326</v>
       </c>
       <c r="R7">
-        <v>54123.31415428923</v>
+        <v>40073.64366026993</v>
       </c>
       <c r="S7">
-        <v>0.1445941925135966</v>
+        <v>0.1526674984223673</v>
       </c>
       <c r="T7">
-        <v>0.1445941925135966</v>
+        <v>0.1526674984223673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H8">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I8">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J8">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>1377.16215703464</v>
+        <v>286.1667671496917</v>
       </c>
       <c r="R8">
-        <v>12394.45941331176</v>
+        <v>2575.500904347225</v>
       </c>
       <c r="S8">
-        <v>0.03311265909181825</v>
+        <v>0.009811817552319548</v>
       </c>
       <c r="T8">
-        <v>0.03311265909181826</v>
+        <v>0.00981181755231955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H9">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I9">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J9">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>3383.075414058908</v>
+        <v>4267.352219239327</v>
       </c>
       <c r="R9">
-        <v>30447.67872653017</v>
+        <v>38406.16997315395</v>
       </c>
       <c r="S9">
-        <v>0.08134308824521871</v>
+        <v>0.146314968099563</v>
       </c>
       <c r="T9">
-        <v>0.08134308824521871</v>
+        <v>0.146314968099563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H10">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I10">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J10">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>1734.42211668714</v>
+        <v>1619.854713822275</v>
       </c>
       <c r="R10">
-        <v>15609.79905018426</v>
+        <v>14578.69242440047</v>
       </c>
       <c r="S10">
-        <v>0.041702662230303</v>
+        <v>0.05554005823805206</v>
       </c>
       <c r="T10">
-        <v>0.041702662230303</v>
+        <v>0.05554005823805207</v>
       </c>
     </row>
   </sheetData>
